--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17100.16361931343</v>
+        <v>3402932.56024337</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17100.16361931343</v>
+        <v>3402932.56024337</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54485.12454758704</v>
+        <v>3402920.023950428</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54485.12454758704</v>
+        <v>3402920.023950428</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267692506.738163</v>
+        <v>50692005.76666177</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13992.66532563636</v>
+        <v>1406679.703287577</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25361.26404208235</v>
+        <v>2371762.01074992</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36751.58586771008</v>
+        <v>3336844.318212262</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48689.16186802813</v>
+        <v>4300696.83640467</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60626.88448707133</v>
+        <v>5264578.531723385</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72564.60710611453</v>
+        <v>6228460.227042098</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84502.32972515738</v>
+        <v>7192341.922360915</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96440.0523442001</v>
+        <v>8156223.617679698</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108377.7749632431</v>
+        <v>9120105.312998369</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120315.4975822861</v>
+        <v>10083987.00831718</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132253.2202013287</v>
+        <v>11047868.70363604</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144190.9428203708</v>
+        <v>12011750.39895497</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156128.6654394128</v>
+        <v>12975632.09427389</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>168066.3880584558</v>
+        <v>13939513.78959246</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180004.1106774991</v>
+        <v>14903395.48491114</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000287</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>5.493985834764317e-11</v>
@@ -27064,7 +27064,7 @@
         <v>206.9999999999766</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>9.146244898438453e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
